--- a/reviewData/review_쿠키런 킹덤.xlsx
+++ b/reviewData/review_쿠키런 킹덤.xlsx
@@ -8580,7 +8580,7 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>5</v>
       </c>
       <c r="G502" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H502" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>2</v>
       </c>
       <c r="G566" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H566" t="inlineStr">
         <is>
